--- a/stage_2/Conditional_Logic_Essentials/Conditional_logic_essentials.xlsx
+++ b/stage_2/Conditional_Logic_Essentials/Conditional_logic_essentials.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Conditional_Logic_Essentials\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E314C3ED-C138-4098-A889-B7485892315C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,58 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Test 1</t>
+  </si>
+  <si>
+    <t>Test 2</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>Eligibility</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>Tola</t>
+  </si>
+  <si>
+    <t>Femi</t>
+  </si>
+  <si>
+    <t>Amina</t>
+  </si>
+  <si>
+    <t>Chidera</t>
+  </si>
+  <si>
+    <t>Obinna</t>
+  </si>
+  <si>
+    <t>Kelechi</t>
+  </si>
+  <si>
+    <t>Hauwa</t>
+  </si>
+  <si>
+    <t>Ijeoma</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +386,127 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>65</v>
+      </c>
+      <c r="C2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>45</v>
+      </c>
+      <c r="C3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>80</v>
+      </c>
+      <c r="C4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>55</v>
+      </c>
+      <c r="C5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>70</v>
+      </c>
+      <c r="C6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>90</v>
+      </c>
+      <c r="C7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>40</v>
+      </c>
+      <c r="C8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>60</v>
+      </c>
+      <c r="C9">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/stage_2/Conditional_Logic_Essentials/Conditional_logic_essentials.xlsx
+++ b/stage_2/Conditional_Logic_Essentials/Conditional_logic_essentials.xlsx
@@ -8,17 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Conditional_Logic_Essentials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E314C3ED-C138-4098-A889-B7485892315C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82119E50-312E-4D53-A9D6-86C0F34881E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -390,7 +399,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -428,6 +437,10 @@
       <c r="C2">
         <v>72</v>
       </c>
+      <c r="D2">
+        <f xml:space="preserve"> AVERAGE(B2:C2)</f>
+        <v>68.5</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">

--- a/stage_2/Conditional_Logic_Essentials/Conditional_logic_essentials.xlsx
+++ b/stage_2/Conditional_Logic_Essentials/Conditional_logic_essentials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Conditional_Logic_Essentials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82119E50-312E-4D53-A9D6-86C0F34881E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1473756-C686-439F-AF86-94F72A60D064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,8 +85,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -114,8 +122,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,31 +408,31 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -521,5 +530,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/stage_2/Conditional_Logic_Essentials/Conditional_logic_essentials.xlsx
+++ b/stage_2/Conditional_Logic_Essentials/Conditional_logic_essentials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Conditional_Logic_Essentials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1473756-C686-439F-AF86-94F72A60D064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A94391C-CEC2-4D0D-B572-04085AAEB32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -122,9 +122,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,126 +411,127 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>65</v>
-      </c>
-      <c r="C2">
-        <v>72</v>
-      </c>
-      <c r="D2">
-        <f xml:space="preserve"> AVERAGE(B2:C2)</f>
-        <v>68.5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C3">
-        <v>52</v>
+        <v>72</v>
+      </c>
+      <c r="D3">
+        <f xml:space="preserve"> AVERAGE(B3:C3)</f>
+        <v>68.5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="C4">
-        <v>91</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="C5">
-        <v>38</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C6">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="C7">
-        <v>95</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C8">
-        <v>30</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>40</v>
+      </c>
+      <c r="C9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>60</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>67</v>
       </c>
     </row>

--- a/stage_2/Conditional_Logic_Essentials/Conditional_logic_essentials.xlsx
+++ b/stage_2/Conditional_Logic_Essentials/Conditional_logic_essentials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Conditional_Logic_Essentials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A94391C-CEC2-4D0D-B572-04085AAEB32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54F82A4-88FB-4F9E-82C8-F614A45317A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -414,7 +414,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D3" sqref="D3:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -468,6 +468,10 @@
       <c r="C4">
         <v>52</v>
       </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D10" si="0" xml:space="preserve"> AVERAGE(B4:C4)</f>
+        <v>48.5</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -479,6 +483,10 @@
       <c r="C5">
         <v>91</v>
       </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>85.5</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -490,6 +498,10 @@
       <c r="C6">
         <v>38</v>
       </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>46.5</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -501,6 +513,10 @@
       <c r="C7">
         <v>48</v>
       </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
@@ -512,6 +528,10 @@
       <c r="C8">
         <v>95</v>
       </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>92.5</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -523,6 +543,10 @@
       <c r="C9">
         <v>30</v>
       </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -533,6 +557,10 @@
       </c>
       <c r="C10">
         <v>67</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>63.5</v>
       </c>
     </row>
   </sheetData>

--- a/stage_2/Conditional_Logic_Essentials/Conditional_logic_essentials.xlsx
+++ b/stage_2/Conditional_Logic_Essentials/Conditional_logic_essentials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Conditional_Logic_Essentials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54F82A4-88FB-4F9E-82C8-F614A45317A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E022ED-2873-448A-A0D3-252284DAE532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Student</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>Ijeoma</t>
+  </si>
+  <si>
+    <t>IF</t>
   </si>
 </sst>
 </file>
@@ -414,12 +417,16 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D10"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
@@ -456,6 +463,10 @@
       <c r="D3">
         <f xml:space="preserve"> AVERAGE(B3:C3)</f>
         <v>68.5</v>
+      </c>
+      <c r="E3" t="str">
+        <f xml:space="preserve"> IF(D3 &gt;= 50, "Pass", "Fail")</f>
+        <v>Pass</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">

--- a/stage_2/Conditional_Logic_Essentials/Conditional_logic_essentials.xlsx
+++ b/stage_2/Conditional_Logic_Essentials/Conditional_logic_essentials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Conditional_Logic_Essentials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E022ED-2873-448A-A0D3-252284DAE532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006E3842-078B-424B-8ACC-9DF916EA40B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -417,7 +417,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E3" sqref="E3:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -483,6 +483,10 @@
         <f t="shared" ref="D4:D10" si="0" xml:space="preserve"> AVERAGE(B4:C4)</f>
         <v>48.5</v>
       </c>
+      <c r="E4" t="str">
+        <f t="shared" ref="E4:E10" si="1" xml:space="preserve"> IF(D4 &gt;= 50, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -498,6 +502,10 @@
         <f t="shared" si="0"/>
         <v>85.5</v>
       </c>
+      <c r="E5" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -513,6 +521,10 @@
         <f t="shared" si="0"/>
         <v>46.5</v>
       </c>
+      <c r="E6" t="str">
+        <f t="shared" si="1"/>
+        <v>Fail</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -528,6 +540,10 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
+      <c r="E7" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
@@ -543,6 +559,10 @@
         <f t="shared" si="0"/>
         <v>92.5</v>
       </c>
+      <c r="E8" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -558,6 +578,10 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
+      <c r="E9" t="str">
+        <f t="shared" si="1"/>
+        <v>Fail</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -572,6 +596,10 @@
       <c r="D10">
         <f t="shared" si="0"/>
         <v>63.5</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
       </c>
     </row>
   </sheetData>

--- a/stage_2/Conditional_Logic_Essentials/Conditional_logic_essentials.xlsx
+++ b/stage_2/Conditional_Logic_Essentials/Conditional_logic_essentials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Conditional_Logic_Essentials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006E3842-078B-424B-8ACC-9DF916EA40B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCC5EA6-A4EF-4D25-A7DB-676B960890C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Student</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>IF</t>
+  </si>
+  <si>
+    <t>IFS</t>
   </si>
 </sst>
 </file>
@@ -414,20 +417,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E10"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E1" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -443,14 +449,15 @@
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -469,7 +476,7 @@
         <v>Pass</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -488,7 +495,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -507,7 +514,7 @@
         <v>Pass</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -526,7 +533,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -545,7 +552,7 @@
         <v>Pass</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -564,7 +571,7 @@
         <v>Pass</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -583,7 +590,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>14</v>
       </c>

--- a/stage_2/Conditional_Logic_Essentials/Conditional_logic_essentials.xlsx
+++ b/stage_2/Conditional_Logic_Essentials/Conditional_logic_essentials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Conditional_Logic_Essentials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCC5EA6-A4EF-4D25-A7DB-676B960890C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE05CB8-8F16-4C42-B26E-2376C768995B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,9 +48,6 @@
     <t>Average</t>
   </si>
   <si>
-    <t>Grade</t>
-  </si>
-  <si>
     <t>Eligibility</t>
   </si>
   <si>
@@ -85,6 +82,9 @@
   </si>
   <si>
     <t>IFS</t>
+  </si>
+  <si>
+    <t>Grade 1</t>
   </si>
 </sst>
 </file>
@@ -420,17 +420,17 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -447,19 +447,19 @@
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>65</v>
@@ -478,7 +478,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>45</v>
@@ -497,7 +497,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>80</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>55</v>
@@ -535,7 +535,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>70</v>
@@ -554,7 +554,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>90</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>40</v>
@@ -592,7 +592,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>60</v>

--- a/stage_2/Conditional_Logic_Essentials/Conditional_logic_essentials.xlsx
+++ b/stage_2/Conditional_Logic_Essentials/Conditional_logic_essentials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Conditional_Logic_Essentials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE05CB8-8F16-4C42-B26E-2376C768995B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052B0320-67EC-4C4F-AA37-5FDC9CF4C0E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Student</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Grade 1</t>
+  </si>
+  <si>
+    <t>Grade 2</t>
   </si>
 </sst>
 </file>
@@ -420,7 +423,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -449,7 +452,9 @@
       <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G2" s="2" t="s">
         <v>4</v>
       </c>

--- a/stage_2/Conditional_Logic_Essentials/Conditional_logic_essentials.xlsx
+++ b/stage_2/Conditional_Logic_Essentials/Conditional_logic_essentials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Conditional_Logic_Essentials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052B0320-67EC-4C4F-AA37-5FDC9CF4C0E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FDD84E-6724-4EB0-BC42-71D30A94A5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,6 +31,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -423,7 +445,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -480,6 +502,10 @@
         <f xml:space="preserve"> IF(D3 &gt;= 50, "Pass", "Fail")</f>
         <v>Pass</v>
       </c>
+      <c r="F3" t="str" cm="1">
+        <f t="array" ref="F3">_xlfn.IFS(D2 &gt;= 70, "Excellent", D2 &gt;= 50,"Good", D2 &lt;50, "Poor")</f>
+        <v>Excellent</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">

--- a/stage_2/Conditional_Logic_Essentials/Conditional_logic_essentials.xlsx
+++ b/stage_2/Conditional_Logic_Essentials/Conditional_logic_essentials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Conditional_Logic_Essentials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FDD84E-6724-4EB0-BC42-71D30A94A5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495641FC-7C78-421C-9CC0-35DB473C2DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -445,7 +445,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -525,6 +525,10 @@
         <f t="shared" ref="E4:E10" si="1" xml:space="preserve"> IF(D4 &gt;= 50, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
+      <c r="F4" t="str" cm="1">
+        <f t="array" ref="F4">_xlfn.IFS(D3 &gt;= 70, "Excellent", D3 &gt;= 50,"Good", D3 &lt;50, "Poor")</f>
+        <v>Good</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -544,6 +548,10 @@
         <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
+      <c r="F5" t="str" cm="1">
+        <f t="array" ref="F5">_xlfn.IFS(D4 &gt;= 70, "Excellent", D4 &gt;= 50,"Good", D4 &lt;50, "Poor")</f>
+        <v>Poor</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -563,6 +571,10 @@
         <f t="shared" si="1"/>
         <v>Fail</v>
       </c>
+      <c r="F6" t="str" cm="1">
+        <f t="array" ref="F6">_xlfn.IFS(D5 &gt;= 70, "Excellent", D5 &gt;= 50,"Good", D5 &lt;50, "Poor")</f>
+        <v>Excellent</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -582,6 +594,10 @@
         <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
+      <c r="F7" t="str" cm="1">
+        <f t="array" ref="F7">_xlfn.IFS(D6 &gt;= 70, "Excellent", D6 &gt;= 50,"Good", D6 &lt;50, "Poor")</f>
+        <v>Poor</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
@@ -601,6 +617,10 @@
         <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
+      <c r="F8" t="str" cm="1">
+        <f t="array" ref="F8">_xlfn.IFS(D7 &gt;= 70, "Excellent", D7 &gt;= 50,"Good", D7 &lt;50, "Poor")</f>
+        <v>Good</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -620,6 +640,10 @@
         <f t="shared" si="1"/>
         <v>Fail</v>
       </c>
+      <c r="F9" t="str" cm="1">
+        <f t="array" ref="F9">_xlfn.IFS(D8 &gt;= 70, "Excellent", D8 &gt;= 50,"Good", D8 &lt;50, "Poor")</f>
+        <v>Excellent</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -638,6 +662,10 @@
       <c r="E10" t="str">
         <f t="shared" si="1"/>
         <v>Pass</v>
+      </c>
+      <c r="F10" t="str" cm="1">
+        <f t="array" ref="F10">_xlfn.IFS(D9 &gt;= 70, "Excellent", D9 &gt;= 50,"Good", D9 &lt;50, "Poor")</f>
+        <v>Poor</v>
       </c>
     </row>
   </sheetData>

--- a/stage_2/Conditional_Logic_Essentials/Conditional_logic_essentials.xlsx
+++ b/stage_2/Conditional_Logic_Essentials/Conditional_logic_essentials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Conditional_Logic_Essentials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495641FC-7C78-421C-9CC0-35DB473C2DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F4444E-213E-4EF7-8B8C-C49E0D9E1785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -445,7 +445,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F3" sqref="F3:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -503,8 +503,12 @@
         <v>Pass</v>
       </c>
       <c r="F3" t="str" cm="1">
-        <f t="array" ref="F3">_xlfn.IFS(D2 &gt;= 70, "Excellent", D2 &gt;= 50,"Good", D2 &lt;50, "Poor")</f>
-        <v>Excellent</v>
+        <f t="array" ref="F3">_xlfn.IFS(D3 &gt;= 70, "Excellent", D3 &gt;= 50,"Good", D3 &lt;50, "Poor")</f>
+        <v>Good</v>
+      </c>
+      <c r="G3" t="str">
+        <f>IF(AND(B2&gt;50, C2&gt;60), "Eligible", "Not Eligible")</f>
+        <v>Eligible</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -526,8 +530,8 @@
         <v>Fail</v>
       </c>
       <c r="F4" t="str" cm="1">
-        <f t="array" ref="F4">_xlfn.IFS(D3 &gt;= 70, "Excellent", D3 &gt;= 50,"Good", D3 &lt;50, "Poor")</f>
-        <v>Good</v>
+        <f t="array" ref="F4">_xlfn.IFS(D4 &gt;= 70, "Excellent", D4 &gt;= 50,"Good", D4 &lt;50, "Poor")</f>
+        <v>Poor</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -549,8 +553,8 @@
         <v>Pass</v>
       </c>
       <c r="F5" t="str" cm="1">
-        <f t="array" ref="F5">_xlfn.IFS(D4 &gt;= 70, "Excellent", D4 &gt;= 50,"Good", D4 &lt;50, "Poor")</f>
-        <v>Poor</v>
+        <f t="array" ref="F5">_xlfn.IFS(D5 &gt;= 70, "Excellent", D5 &gt;= 50,"Good", D5 &lt;50, "Poor")</f>
+        <v>Excellent</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -572,8 +576,8 @@
         <v>Fail</v>
       </c>
       <c r="F6" t="str" cm="1">
-        <f t="array" ref="F6">_xlfn.IFS(D5 &gt;= 70, "Excellent", D5 &gt;= 50,"Good", D5 &lt;50, "Poor")</f>
-        <v>Excellent</v>
+        <f t="array" ref="F6">_xlfn.IFS(D6 &gt;= 70, "Excellent", D6 &gt;= 50,"Good", D6 &lt;50, "Poor")</f>
+        <v>Poor</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -595,8 +599,8 @@
         <v>Pass</v>
       </c>
       <c r="F7" t="str" cm="1">
-        <f t="array" ref="F7">_xlfn.IFS(D6 &gt;= 70, "Excellent", D6 &gt;= 50,"Good", D6 &lt;50, "Poor")</f>
-        <v>Poor</v>
+        <f t="array" ref="F7">_xlfn.IFS(D7 &gt;= 70, "Excellent", D7 &gt;= 50,"Good", D7 &lt;50, "Poor")</f>
+        <v>Good</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -618,8 +622,8 @@
         <v>Pass</v>
       </c>
       <c r="F8" t="str" cm="1">
-        <f t="array" ref="F8">_xlfn.IFS(D7 &gt;= 70, "Excellent", D7 &gt;= 50,"Good", D7 &lt;50, "Poor")</f>
-        <v>Good</v>
+        <f t="array" ref="F8">_xlfn.IFS(D8 &gt;= 70, "Excellent", D8 &gt;= 50,"Good", D8 &lt;50, "Poor")</f>
+        <v>Excellent</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -641,8 +645,8 @@
         <v>Fail</v>
       </c>
       <c r="F9" t="str" cm="1">
-        <f t="array" ref="F9">_xlfn.IFS(D8 &gt;= 70, "Excellent", D8 &gt;= 50,"Good", D8 &lt;50, "Poor")</f>
-        <v>Excellent</v>
+        <f t="array" ref="F9">_xlfn.IFS(D9 &gt;= 70, "Excellent", D9 &gt;= 50,"Good", D9 &lt;50, "Poor")</f>
+        <v>Poor</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -664,8 +668,8 @@
         <v>Pass</v>
       </c>
       <c r="F10" t="str" cm="1">
-        <f t="array" ref="F10">_xlfn.IFS(D9 &gt;= 70, "Excellent", D9 &gt;= 50,"Good", D9 &lt;50, "Poor")</f>
-        <v>Poor</v>
+        <f t="array" ref="F10">_xlfn.IFS(D10 &gt;= 70, "Excellent", D10 &gt;= 50,"Good", D10 &lt;50, "Poor")</f>
+        <v>Good</v>
       </c>
     </row>
   </sheetData>

--- a/stage_2/Conditional_Logic_Essentials/Conditional_logic_essentials.xlsx
+++ b/stage_2/Conditional_Logic_Essentials/Conditional_logic_essentials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Conditional_Logic_Essentials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F4444E-213E-4EF7-8B8C-C49E0D9E1785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFDC547-55EF-49FD-A723-0B98B5427F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -445,10 +445,13 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F10"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="7" max="7" width="10.08984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E1" s="2" t="s">
@@ -507,7 +510,7 @@
         <v>Good</v>
       </c>
       <c r="G3" t="str">
-        <f>IF(AND(B2&gt;50, C2&gt;60), "Eligible", "Not Eligible")</f>
+        <f>IF(AND(B3&gt;50, C3&gt;60), "Eligible", "Not Eligible")</f>
         <v>Eligible</v>
       </c>
     </row>
@@ -533,6 +536,10 @@
         <f t="array" ref="F4">_xlfn.IFS(D4 &gt;= 70, "Excellent", D4 &gt;= 50,"Good", D4 &lt;50, "Poor")</f>
         <v>Poor</v>
       </c>
+      <c r="G4" t="str">
+        <f t="shared" ref="G4:G10" si="2">IF(AND(B4&gt;50, C4&gt;60), "Eligible", "Not Eligible")</f>
+        <v>Not Eligible</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -556,6 +563,10 @@
         <f t="array" ref="F5">_xlfn.IFS(D5 &gt;= 70, "Excellent", D5 &gt;= 50,"Good", D5 &lt;50, "Poor")</f>
         <v>Excellent</v>
       </c>
+      <c r="G5" t="str">
+        <f t="shared" si="2"/>
+        <v>Eligible</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -579,6 +590,10 @@
         <f t="array" ref="F6">_xlfn.IFS(D6 &gt;= 70, "Excellent", D6 &gt;= 50,"Good", D6 &lt;50, "Poor")</f>
         <v>Poor</v>
       </c>
+      <c r="G6" t="str">
+        <f t="shared" si="2"/>
+        <v>Not Eligible</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -602,6 +617,10 @@
         <f t="array" ref="F7">_xlfn.IFS(D7 &gt;= 70, "Excellent", D7 &gt;= 50,"Good", D7 &lt;50, "Poor")</f>
         <v>Good</v>
       </c>
+      <c r="G7" t="str">
+        <f t="shared" si="2"/>
+        <v>Not Eligible</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
@@ -625,6 +644,10 @@
         <f t="array" ref="F8">_xlfn.IFS(D8 &gt;= 70, "Excellent", D8 &gt;= 50,"Good", D8 &lt;50, "Poor")</f>
         <v>Excellent</v>
       </c>
+      <c r="G8" t="str">
+        <f t="shared" si="2"/>
+        <v>Eligible</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -648,6 +671,10 @@
         <f t="array" ref="F9">_xlfn.IFS(D9 &gt;= 70, "Excellent", D9 &gt;= 50,"Good", D9 &lt;50, "Poor")</f>
         <v>Poor</v>
       </c>
+      <c r="G9" t="str">
+        <f t="shared" si="2"/>
+        <v>Not Eligible</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -670,6 +697,10 @@
       <c r="F10" t="str" cm="1">
         <f t="array" ref="F10">_xlfn.IFS(D10 &gt;= 70, "Excellent", D10 &gt;= 50,"Good", D10 &lt;50, "Poor")</f>
         <v>Good</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="2"/>
+        <v>Eligible</v>
       </c>
     </row>
   </sheetData>

--- a/stage_2/Conditional_Logic_Essentials/Conditional_logic_essentials.xlsx
+++ b/stage_2/Conditional_Logic_Essentials/Conditional_logic_essentials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Conditional_Logic_Essentials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFDC547-55EF-49FD-A723-0B98B5427F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BEE8886-4C2C-4304-B7A3-9CD72A966DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Student</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Grade 2</t>
+  </si>
+  <si>
+    <t>AND</t>
   </si>
 </sst>
 </file>
@@ -153,9 +156,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -445,7 +447,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -454,36 +456,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
     </row>

--- a/stage_2/Conditional_Logic_Essentials/Conditional_logic_essentials.xlsx
+++ b/stage_2/Conditional_Logic_Essentials/Conditional_logic_essentials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Conditional_Logic_Essentials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BEE8886-4C2C-4304-B7A3-9CD72A966DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E7FDE8-64C7-429D-8A28-9ABEC1BE3A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -447,7 +447,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -518,6 +518,10 @@
         <f>IF(AND(B3&gt;50, C3&gt;60), "Eligible", "Not Eligible")</f>
         <v>Eligible</v>
       </c>
+      <c r="H3" t="str">
+        <f>IF(OR(B3&gt;50, C3&gt;60), "Eligible", "Not Eligible")</f>
+        <v>Eligible</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">

--- a/stage_2/Conditional_Logic_Essentials/Conditional_logic_essentials.xlsx
+++ b/stage_2/Conditional_Logic_Essentials/Conditional_logic_essentials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Conditional_Logic_Essentials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E7FDE8-64C7-429D-8A28-9ABEC1BE3A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3067F255-CB21-4BE9-9FD2-79D4FA4D75BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Student</t>
   </si>
@@ -113,6 +113,12 @@
   </si>
   <si>
     <t>AND</t>
+  </si>
+  <si>
+    <t>Eligibility 2</t>
+  </si>
+  <si>
+    <t>OR</t>
   </si>
 </sst>
 </file>
@@ -444,18 +450,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="7" max="7" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
@@ -465,8 +472,11 @@
       <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,10 +499,13 @@
         <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -519,11 +532,15 @@
         <v>Eligible</v>
       </c>
       <c r="H3" t="str">
+        <f>IF(OR(A3&gt;50, B3&gt;60), "Eligible", "Not Eligible")</f>
+        <v>Eligible</v>
+      </c>
+      <c r="I3" t="str">
         <f>IF(OR(B3&gt;50, C3&gt;60), "Eligible", "Not Eligible")</f>
         <v>Eligible</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -549,8 +566,16 @@
         <f t="shared" ref="G4:G10" si="2">IF(AND(B4&gt;50, C4&gt;60), "Eligible", "Not Eligible")</f>
         <v>Not Eligible</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H4" t="str">
+        <f t="shared" ref="H4:I10" si="3">IF(OR(A4&gt;50, B4&gt;60), "Eligible", "Not Eligible")</f>
+        <v>Eligible</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="3"/>
+        <v>Not Eligible</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -576,8 +601,16 @@
         <f t="shared" si="2"/>
         <v>Eligible</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H5" t="str">
+        <f t="shared" si="3"/>
+        <v>Eligible</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="3"/>
+        <v>Eligible</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -603,8 +636,16 @@
         <f t="shared" si="2"/>
         <v>Not Eligible</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H6" t="str">
+        <f t="shared" si="3"/>
+        <v>Eligible</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="3"/>
+        <v>Eligible</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -630,8 +671,16 @@
         <f t="shared" si="2"/>
         <v>Not Eligible</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H7" t="str">
+        <f t="shared" si="3"/>
+        <v>Eligible</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="3"/>
+        <v>Eligible</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -657,8 +706,16 @@
         <f t="shared" si="2"/>
         <v>Eligible</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H8" t="str">
+        <f t="shared" si="3"/>
+        <v>Eligible</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="3"/>
+        <v>Eligible</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -684,8 +741,16 @@
         <f t="shared" si="2"/>
         <v>Not Eligible</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H9" t="str">
+        <f t="shared" si="3"/>
+        <v>Eligible</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="3"/>
+        <v>Not Eligible</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -709,6 +774,14 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="2"/>
+        <v>Eligible</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="3"/>
+        <v>Eligible</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="3"/>
         <v>Eligible</v>
       </c>
     </row>

--- a/stage_2/Conditional_Logic_Essentials/Conditional_logic_essentials.xlsx
+++ b/stage_2/Conditional_Logic_Essentials/Conditional_logic_essentials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Conditional_Logic_Essentials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3067F255-CB21-4BE9-9FD2-79D4FA4D75BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD962D8F-5DB9-432B-967B-07FA82579E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -450,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -462,7 +462,7 @@
     <col min="8" max="8" width="10.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
@@ -476,7 +476,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,7 +505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -539,8 +539,12 @@
         <f>IF(OR(B3&gt;50, C3&gt;60), "Eligible", "Not Eligible")</f>
         <v>Eligible</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J3" t="b">
+        <f>NOT(E3="Pass")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -574,8 +578,12 @@
         <f t="shared" si="3"/>
         <v>Not Eligible</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J4" t="b">
+        <f t="shared" ref="J4:J10" si="4">NOT(E4="Pass")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -609,8 +617,12 @@
         <f t="shared" si="3"/>
         <v>Eligible</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J5" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -644,8 +656,12 @@
         <f t="shared" si="3"/>
         <v>Eligible</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J6" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -679,8 +695,12 @@
         <f t="shared" si="3"/>
         <v>Eligible</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J7" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -714,8 +734,12 @@
         <f t="shared" si="3"/>
         <v>Eligible</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J8" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -749,8 +773,12 @@
         <f t="shared" si="3"/>
         <v>Not Eligible</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J9" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -783,6 +811,10 @@
       <c r="I10" t="str">
         <f t="shared" si="3"/>
         <v>Eligible</v>
+      </c>
+      <c r="J10" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/stage_2/Conditional_Logic_Essentials/Conditional_logic_essentials.xlsx
+++ b/stage_2/Conditional_Logic_Essentials/Conditional_logic_essentials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Conditional_Logic_Essentials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD962D8F-5DB9-432B-967B-07FA82579E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4E0580-89B9-45C7-99A5-C37DF25B1068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -450,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -462,7 +462,7 @@
     <col min="8" max="8" width="10.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
@@ -476,7 +476,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,7 +505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -539,12 +539,12 @@
         <f>IF(OR(B3&gt;50, C3&gt;60), "Eligible", "Not Eligible")</f>
         <v>Eligible</v>
       </c>
-      <c r="J3" t="b">
+      <c r="L3" t="b">
         <f>NOT(E3="Pass")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -578,12 +578,12 @@
         <f t="shared" si="3"/>
         <v>Not Eligible</v>
       </c>
-      <c r="J4" t="b">
-        <f t="shared" ref="J4:J10" si="4">NOT(E4="Pass")</f>
+      <c r="L4" t="b">
+        <f>NOT(E4="Pass")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -617,12 +617,12 @@
         <f t="shared" si="3"/>
         <v>Eligible</v>
       </c>
-      <c r="J5" t="b">
-        <f t="shared" si="4"/>
+      <c r="L5" t="b">
+        <f>NOT(E5="Pass")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -656,12 +656,12 @@
         <f t="shared" si="3"/>
         <v>Eligible</v>
       </c>
-      <c r="J6" t="b">
-        <f t="shared" si="4"/>
+      <c r="L6" t="b">
+        <f>NOT(E6="Pass")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -695,12 +695,12 @@
         <f t="shared" si="3"/>
         <v>Eligible</v>
       </c>
-      <c r="J7" t="b">
-        <f t="shared" si="4"/>
+      <c r="L7" t="b">
+        <f>NOT(E7="Pass")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -734,12 +734,12 @@
         <f t="shared" si="3"/>
         <v>Eligible</v>
       </c>
-      <c r="J8" t="b">
-        <f t="shared" si="4"/>
+      <c r="L8" t="b">
+        <f>NOT(E8="Pass")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -773,12 +773,12 @@
         <f t="shared" si="3"/>
         <v>Not Eligible</v>
       </c>
-      <c r="J9" t="b">
-        <f t="shared" si="4"/>
+      <c r="L9" t="b">
+        <f>NOT(E9="Pass")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -812,8 +812,8 @@
         <f t="shared" si="3"/>
         <v>Eligible</v>
       </c>
-      <c r="J10" t="b">
-        <f t="shared" si="4"/>
+      <c r="L10" t="b">
+        <f>NOT(E10="Pass")</f>
         <v>0</v>
       </c>
     </row>

--- a/stage_2/Conditional_Logic_Essentials/Conditional_logic_essentials.xlsx
+++ b/stage_2/Conditional_Logic_Essentials/Conditional_logic_essentials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Conditional_Logic_Essentials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4E0580-89B9-45C7-99A5-C37DF25B1068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E86F01-8EAC-47A5-865E-21FE7C86ED68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Student</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>OR</t>
+  </si>
+  <si>
+    <t>NOT</t>
   </si>
 </sst>
 </file>
@@ -453,7 +456,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -475,6 +478,9 @@
       <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">

--- a/stage_2/Conditional_Logic_Essentials/Conditional_logic_essentials.xlsx
+++ b/stage_2/Conditional_Logic_Essentials/Conditional_logic_essentials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Conditional_Logic_Essentials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E86F01-8EAC-47A5-865E-21FE7C86ED68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EE2AF7-B24D-4FB3-A611-4EB4AFE1F981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -456,7 +456,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -542,8 +542,8 @@
         <v>Eligible</v>
       </c>
       <c r="I3" t="str">
-        <f>IF(OR(B3&gt;50, C3&gt;60), "Eligible", "Not Eligible")</f>
-        <v>Eligible</v>
+        <f>IF(AND(B3&gt;50,C3&gt;60), "Qualified", IF(OR(B3&gt;40,C3&gt;50), "Consider", "Reject"))</f>
+        <v>Qualified</v>
       </c>
       <c r="L3" t="b">
         <f>NOT(E3="Pass")</f>

--- a/stage_2/Conditional_Logic_Essentials/Conditional_logic_essentials.xlsx
+++ b/stage_2/Conditional_Logic_Essentials/Conditional_logic_essentials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Conditional_Logic_Essentials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EE2AF7-B24D-4FB3-A611-4EB4AFE1F981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F563D187-580C-4F0A-8874-929D84559E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Student</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>NOT</t>
+  </si>
+  <si>
+    <t>Nested IFs</t>
   </si>
 </sst>
 </file>
@@ -456,13 +459,14 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="7" max="7" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.08984375" customWidth="1"/>
+    <col min="9" max="9" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -478,6 +482,9 @@
       <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="L1" s="1" t="s">
         <v>21</v>
       </c>

--- a/stage_2/Conditional_Logic_Essentials/Conditional_logic_essentials.xlsx
+++ b/stage_2/Conditional_Logic_Essentials/Conditional_logic_essentials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Conditional_Logic_Essentials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F563D187-580C-4F0A-8874-929D84559E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC350FE5-5174-42B6-9901-46C6FFBD6374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -459,7 +459,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="I3" sqref="I3:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -588,8 +588,8 @@
         <v>Eligible</v>
       </c>
       <c r="I4" t="str">
-        <f t="shared" si="3"/>
-        <v>Not Eligible</v>
+        <f t="shared" ref="I4:I10" si="4">IF(AND(B4&gt;50,C4&gt;60), "Qualified", IF(OR(B4&gt;40,C4&gt;50), "Consider", "Reject"))</f>
+        <v>Consider</v>
       </c>
       <c r="L4" t="b">
         <f>NOT(E4="Pass")</f>
@@ -627,8 +627,8 @@
         <v>Eligible</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" si="3"/>
-        <v>Eligible</v>
+        <f t="shared" si="4"/>
+        <v>Qualified</v>
       </c>
       <c r="L5" t="b">
         <f>NOT(E5="Pass")</f>
@@ -666,8 +666,8 @@
         <v>Eligible</v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" si="3"/>
-        <v>Eligible</v>
+        <f t="shared" si="4"/>
+        <v>Consider</v>
       </c>
       <c r="L6" t="b">
         <f>NOT(E6="Pass")</f>
@@ -705,8 +705,8 @@
         <v>Eligible</v>
       </c>
       <c r="I7" t="str">
-        <f t="shared" si="3"/>
-        <v>Eligible</v>
+        <f t="shared" si="4"/>
+        <v>Consider</v>
       </c>
       <c r="L7" t="b">
         <f>NOT(E7="Pass")</f>
@@ -744,8 +744,8 @@
         <v>Eligible</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="3"/>
-        <v>Eligible</v>
+        <f t="shared" si="4"/>
+        <v>Qualified</v>
       </c>
       <c r="L8" t="b">
         <f>NOT(E8="Pass")</f>
@@ -783,8 +783,8 @@
         <v>Eligible</v>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="3"/>
-        <v>Not Eligible</v>
+        <f t="shared" si="4"/>
+        <v>Reject</v>
       </c>
       <c r="L9" t="b">
         <f>NOT(E9="Pass")</f>
@@ -822,8 +822,8 @@
         <v>Eligible</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="3"/>
-        <v>Eligible</v>
+        <f t="shared" si="4"/>
+        <v>Qualified</v>
       </c>
       <c r="L10" t="b">
         <f>NOT(E10="Pass")</f>

--- a/stage_2/Conditional_Logic_Essentials/Conditional_logic_essentials.xlsx
+++ b/stage_2/Conditional_Logic_Essentials/Conditional_logic_essentials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Conditional_Logic_Essentials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC350FE5-5174-42B6-9901-46C6FFBD6374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641D938C-133B-4DB7-BB51-E185AD9112E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Student</t>
   </si>
@@ -70,6 +70,9 @@
     <t>Average</t>
   </si>
   <si>
+    <t>Grade</t>
+  </si>
+  <si>
     <t>Eligibility</t>
   </si>
   <si>
@@ -125,6 +128,18 @@
   </si>
   <si>
     <t>Nested IFs</t>
+  </si>
+  <si>
+    <t>Bonus</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Poor</t>
   </si>
 </sst>
 </file>
@@ -168,13 +183,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -456,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I10"/>
+      <selection activeCell="N2" sqref="N2:O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -469,27 +490,27 @@
     <col min="9" max="9" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -503,24 +524,30 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>5</v>
+      <c r="O2" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>65</v>
@@ -552,14 +579,24 @@
         <f>IF(AND(B3&gt;50,C3&gt;60), "Qualified", IF(OR(B3&gt;40,C3&gt;50), "Consider", "Reject"))</f>
         <v>Qualified</v>
       </c>
+      <c r="J3" t="str">
+        <f>IFERROR(VLOOKUP(E3, $N$3:$O$5, 2, FALSE), "Not Found")</f>
+        <v>Not Found</v>
+      </c>
       <c r="L3" t="b">
         <f>NOT(E3="Pass")</f>
         <v>0</v>
       </c>
+      <c r="N3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="4">
+        <v>5000</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>45</v>
@@ -591,14 +628,24 @@
         <f t="shared" ref="I4:I10" si="4">IF(AND(B4&gt;50,C4&gt;60), "Qualified", IF(OR(B4&gt;40,C4&gt;50), "Consider", "Reject"))</f>
         <v>Consider</v>
       </c>
+      <c r="J4" t="str">
+        <f t="shared" ref="J4:J10" si="5">IFERROR(VLOOKUP(E4, $N$3:$O$5, 2, FALSE), "Not Found")</f>
+        <v>Not Found</v>
+      </c>
       <c r="L4" t="b">
         <f>NOT(E4="Pass")</f>
         <v>1</v>
       </c>
+      <c r="N4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="4">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>80</v>
@@ -630,14 +677,24 @@
         <f t="shared" si="4"/>
         <v>Qualified</v>
       </c>
+      <c r="J5" t="str">
+        <f t="shared" si="5"/>
+        <v>Not Found</v>
+      </c>
       <c r="L5" t="b">
         <f>NOT(E5="Pass")</f>
         <v>0</v>
       </c>
+      <c r="N5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>55</v>
@@ -669,14 +726,18 @@
         <f t="shared" si="4"/>
         <v>Consider</v>
       </c>
+      <c r="J6" t="str">
+        <f t="shared" si="5"/>
+        <v>Not Found</v>
+      </c>
       <c r="L6" t="b">
         <f>NOT(E6="Pass")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>70</v>
@@ -708,14 +769,18 @@
         <f t="shared" si="4"/>
         <v>Consider</v>
       </c>
+      <c r="J7" t="str">
+        <f t="shared" si="5"/>
+        <v>Not Found</v>
+      </c>
       <c r="L7" t="b">
         <f>NOT(E7="Pass")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>90</v>
@@ -747,14 +812,18 @@
         <f t="shared" si="4"/>
         <v>Qualified</v>
       </c>
+      <c r="J8" t="str">
+        <f t="shared" si="5"/>
+        <v>Not Found</v>
+      </c>
       <c r="L8" t="b">
         <f>NOT(E8="Pass")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>40</v>
@@ -786,14 +855,18 @@
         <f t="shared" si="4"/>
         <v>Reject</v>
       </c>
+      <c r="J9" t="str">
+        <f t="shared" si="5"/>
+        <v>Not Found</v>
+      </c>
       <c r="L9" t="b">
         <f>NOT(E9="Pass")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>60</v>
@@ -824,6 +897,10 @@
       <c r="I10" t="str">
         <f t="shared" si="4"/>
         <v>Qualified</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="5"/>
+        <v>Not Found</v>
       </c>
       <c r="L10" t="b">
         <f>NOT(E10="Pass")</f>

--- a/stage_2/Conditional_Logic_Essentials/Conditional_logic_essentials.xlsx
+++ b/stage_2/Conditional_Logic_Essentials/Conditional_logic_essentials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Conditional_Logic_Essentials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641D938C-133B-4DB7-BB51-E185AD9112E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494D9EBA-A748-4C87-9BD5-72AF71D4842A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>Student</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>Poor</t>
+  </si>
+  <si>
+    <t>IFERROR</t>
   </si>
 </sst>
 </file>
@@ -477,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:O5"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -907,6 +910,145 @@
         <v>0</v>
       </c>
     </row>
+    <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D14" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>65</v>
+      </c>
+      <c r="C16">
+        <v>72</v>
+      </c>
+      <c r="D16">
+        <f xml:space="preserve"> AVERAGE(B16:C16)</f>
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>45</v>
+      </c>
+      <c r="C17">
+        <v>52</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ref="D17:D23" si="6" xml:space="preserve"> AVERAGE(B17:C17)</f>
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>80</v>
+      </c>
+      <c r="C18">
+        <v>91</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="6"/>
+        <v>85.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>55</v>
+      </c>
+      <c r="C19">
+        <v>38</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="6"/>
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>70</v>
+      </c>
+      <c r="C20">
+        <v>48</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="6"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21">
+        <v>90</v>
+      </c>
+      <c r="C21">
+        <v>95</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="6"/>
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <v>40</v>
+      </c>
+      <c r="C22">
+        <v>30</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23">
+        <v>60</v>
+      </c>
+      <c r="C23">
+        <v>67</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="6"/>
+        <v>63.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/stage_2/Conditional_Logic_Essentials/Conditional_logic_essentials.xlsx
+++ b/stage_2/Conditional_Logic_Essentials/Conditional_logic_essentials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_2\Conditional_Logic_Essentials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494D9EBA-A748-4C87-9BD5-72AF71D4842A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8C5681-11C0-4567-A275-8578159BF5E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -482,12 +482,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.08984375" customWidth="1"/>
     <col min="9" max="9" width="10.08984375" bestFit="1" customWidth="1"/>
@@ -940,7 +941,7 @@
         <v>72</v>
       </c>
       <c r="D16">
-        <f xml:space="preserve"> AVERAGE(B16:C16)</f>
+        <f xml:space="preserve"> IFERROR(AVERAGE(B16:C16), "Missing Score")</f>
         <v>68.5</v>
       </c>
     </row>
@@ -955,7 +956,7 @@
         <v>52</v>
       </c>
       <c r="D17">
-        <f t="shared" ref="D17:D23" si="6" xml:space="preserve"> AVERAGE(B17:C17)</f>
+        <f t="shared" ref="D17:D23" si="6" xml:space="preserve"> IFERROR(AVERAGE(B17:C17), "Missing Score")</f>
         <v>48.5</v>
       </c>
     </row>
@@ -1023,15 +1024,9 @@
       <c r="A22" t="s">
         <v>13</v>
       </c>
-      <c r="B22">
-        <v>40</v>
-      </c>
-      <c r="C22">
-        <v>30</v>
-      </c>
-      <c r="D22">
+      <c r="D22" t="str">
         <f t="shared" si="6"/>
-        <v>35</v>
+        <v>Missing Score</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
